--- a/Pro.xlsx
+++ b/Pro.xlsx
@@ -559,13 +559,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A141"/>
+  <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1097,6 +1100,11 @@
         <v>67</v>
       </c>
     </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1.12222222222222E+17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
